--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaolopesagostinho/ES_gantProject/Scrum/phase 1/Sprint 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA4DDC-0730-4023-AC45-3B7BEA6ECC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F00F4E-C137-334E-89B7-F379824FC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Task Description</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Guilherme</t>
+  </si>
+  <si>
+    <t>João</t>
   </si>
 </sst>
 </file>
@@ -624,17 +627,17 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -648,13 +651,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,7 +667,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -674,7 +677,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -690,23 +693,27 @@
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -714,7 +721,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +729,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -730,7 +737,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaolopesagostinho/ES_gantProject/Scrum/phase 1/Sprint 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F00F4E-C137-334E-89B7-F379824FC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A379E2A1-DF8E-4FAD-812F-3FCE532BB90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Task Description</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>João</t>
+  </si>
+  <si>
+    <t>Samuel</t>
   </si>
 </sst>
 </file>
@@ -627,17 +630,17 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="5" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -651,13 +654,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -667,7 +670,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -677,23 +680,27 @@
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -703,7 +710,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -713,7 +720,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -721,7 +728,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -729,7 +736,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -737,7 +744,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A379E2A1-DF8E-4FAD-812F-3FCE532BB90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE786D-4E8E-49ED-B341-D9AB79A87078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Task Description</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Samuel</t>
+  </si>
+  <si>
+    <t>Joana</t>
   </si>
 </sst>
 </file>
@@ -629,18 +632,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="5" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -654,13 +657,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -670,7 +673,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -690,7 +693,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +703,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -710,7 +713,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -728,7 +731,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -736,19 +739,23 @@
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
     </row>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE786D-4E8E-49ED-B341-D9AB79A87078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E7ACA-375E-4913-9D11-B3526786D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Task Description</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme </t>
   </si>
 </sst>
 </file>
@@ -632,18 +635,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -657,13 +660,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +676,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -683,7 +686,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -693,7 +696,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -703,7 +706,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -713,7 +716,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -723,7 +726,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -731,7 +734,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -739,24 +742,28 @@
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
   </sheetData>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E7ACA-375E-4913-9D11-B3526786D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B419B-909B-4E17-9459-45AE2A4460FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Task Description</t>
   </si>
@@ -81,7 +81,13 @@
     <t>Joana</t>
   </si>
   <si>
-    <t xml:space="preserve">Guilherme </t>
+    <t xml:space="preserve">1º - Guilherme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3º - Guilherme </t>
+  </si>
+  <si>
+    <t>Letícia</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +736,9 @@
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
@@ -738,7 +746,9 @@
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
@@ -762,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3"/>
     </row>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B419B-909B-4E17-9459-45AE2A4460FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6139E6-FD70-4EFC-AACD-D71D10A51ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Task Description</t>
   </si>
@@ -642,7 +642,7 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,9 @@
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,7 +711,9 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +743,9 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +755,9 @@
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -772,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3"/>
     </row>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\IdeaProjects\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B419B-909B-4E17-9459-45AE2A4460FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB52D20-0F8D-43C2-89E4-D0AC0F54E0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Task Description</t>
   </si>
@@ -84,10 +84,16 @@
     <t xml:space="preserve">1º - Guilherme </t>
   </si>
   <si>
-    <t xml:space="preserve">3º - Guilherme </t>
-  </si>
-  <si>
     <t>Letícia</t>
+  </si>
+  <si>
+    <t>1º - Leticia</t>
+  </si>
+  <si>
+    <t>2º - Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º - Leticia                3º - Guilherme </t>
   </si>
 </sst>
 </file>
@@ -642,17 +648,17 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -666,33 +672,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -702,57 +712,63 @@
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -760,11 +776,11 @@
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -772,7 +788,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -785,5 +801,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6139E6-FD70-4EFC-AACD-D71D10A51ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7ECAE5-8F9E-4921-9670-D6DC3FFC603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Task Description</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Letícia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º - Guilherme </t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
     </row>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\IdeaProjects\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7ECAE5-8F9E-4921-9670-D6DC3FFC603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08D8DF-3999-4332-9E15-FD212C83C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Task Description</t>
   </si>
@@ -84,13 +84,19 @@
     <t xml:space="preserve">1º - Guilherme </t>
   </si>
   <si>
-    <t xml:space="preserve">3º - Guilherme </t>
-  </si>
-  <si>
     <t>Letícia</t>
   </si>
   <si>
-    <t xml:space="preserve">2º - Guilherme </t>
+    <t>1º - Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º - Leticia       3º - Guilherme </t>
+  </si>
+  <si>
+    <t>2º - Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º - Leticia         2º - Guilherme </t>
   </si>
 </sst>
 </file>
@@ -645,17 +651,17 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -669,33 +675,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -707,7 +717,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -715,55 +725,59 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -771,11 +785,11 @@
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\IdeaProjects\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08D8DF-3999-4332-9E15-FD212C83C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB4B0C-C8AD-4710-99BC-A2A597E4CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Task Description</t>
   </si>
@@ -87,23 +87,32 @@
     <t>Letícia</t>
   </si>
   <si>
-    <t>1º - Leticia</t>
-  </si>
-  <si>
     <t xml:space="preserve">1º - Leticia       3º - Guilherme </t>
   </si>
   <si>
-    <t>2º - Leticia</t>
-  </si>
-  <si>
     <t xml:space="preserve">1º - Leticia         2º - Guilherme </t>
+  </si>
+  <si>
+    <t>1º - Leticia         2º - Samuel</t>
+  </si>
+  <si>
+    <t>1º - Guilherme  2º Samuel</t>
+  </si>
+  <si>
+    <t>1º - Leticia                 2º - Samuel</t>
+  </si>
+  <si>
+    <t>2º - Leticia         1º Samuel</t>
+  </si>
+  <si>
+    <t>1º - Guilherme  3º Samuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +130,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +392,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,20 +679,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E17"/>
+  <dimension ref="B5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -675,128 +706,129 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
+      <c r="D9" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
+      <c r="D12" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
+      <c r="D15" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
+      <c r="D16" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="3"/>
@@ -810,5 +842,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB4B0C-C8AD-4710-99BC-A2A597E4CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E921D-3C36-4CB7-A1B9-FB03659E873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Task Description</t>
   </si>
@@ -87,25 +87,46 @@
     <t>Letícia</t>
   </si>
   <si>
-    <t xml:space="preserve">1º - Leticia       3º - Guilherme </t>
-  </si>
-  <si>
     <t xml:space="preserve">1º - Leticia         2º - Guilherme </t>
   </si>
   <si>
-    <t>1º - Leticia         2º - Samuel</t>
-  </si>
-  <si>
-    <t>1º - Guilherme  2º Samuel</t>
-  </si>
-  <si>
-    <t>1º - Leticia                 2º - Samuel</t>
-  </si>
-  <si>
     <t>2º - Leticia         1º Samuel</t>
   </si>
   <si>
-    <t>1º - Guilherme  3º Samuel</t>
+    <t>1º - Guilherme 
+ 2º - Samuel
+ 3º - Joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º - Leticia
+  3º - Guilherme </t>
+  </si>
+  <si>
+    <t>1º - Guilherme
+  2º - Samuel
+ 3º - Joana</t>
+  </si>
+  <si>
+    <t>1º - Leticia 
+2º - Samuel
+3º - Joana</t>
+  </si>
+  <si>
+    <t>1º - Leticia
+2º - Samuel
+3º - Joana</t>
+  </si>
+  <si>
+    <t>1º - Guilherme 
+3º Joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1º Samuel 
+2º - Leticia 
+3º - Joana</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -374,6 +395,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,13 +420,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,154 +702,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="5" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>21</v>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>25</v>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>20</v>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="3"/>

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaolopesagostinho/ES_gantProject/Scrum/phase 1/Sprint 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E921D-3C36-4CB7-A1B9-FB03659E873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7828821-EE18-4F4F-A04E-5265ADBFD630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Task Description</t>
   </si>
@@ -81,13 +81,7 @@
     <t>Joana</t>
   </si>
   <si>
-    <t xml:space="preserve">1º - Guilherme </t>
-  </si>
-  <si>
     <t>Letícia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1º - Leticia         2º - Guilherme </t>
   </si>
   <si>
     <t>2º - Leticia         1º Samuel</t>
@@ -98,10 +92,6 @@
  3º - Joana</t>
   </si>
   <si>
-    <t xml:space="preserve">1º - Leticia
-  3º - Guilherme </t>
-  </si>
-  <si>
     <t>1º - Guilherme
   2º - Samuel
  3º - Joana</t>
@@ -117,16 +107,26 @@
 3º - Joana</t>
   </si>
   <si>
-    <t>1º - Guilherme 
-3º Joana</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1º Samuel 
 2º - Leticia 
 3º - Joana</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>1º - Guilherme 
+3º Joana.                     2º - João</t>
+  </si>
+  <si>
+    <t>1º - Leticia                 2º - Guilherme               3º - João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º - Leticia
+  3º - Guilherme               3º - João. </t>
+  </si>
+  <si>
+    <t>1º - Guilherme                    2º - João                      3º - João</t>
   </si>
 </sst>
 </file>
@@ -702,18 +702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
@@ -727,13 +727,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -741,13 +741,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,13 +755,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -769,11 +769,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -781,11 +783,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -793,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -805,42 +809,42 @@
         <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -848,11 +852,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -860,9 +866,11 @@
         <v>17</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Scrum/phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaolopesagostinho/ES_gantProject/Scrum/phase 1/Sprint 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7828821-EE18-4F4F-A04E-5265ADBFD630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D45190-959D-4BF4-AEE0-B3D537C94C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Task Description</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Letícia</t>
-  </si>
-  <si>
-    <t>2º - Leticia         1º Samuel</t>
   </si>
   <si>
     <t>1º - Guilherme 
@@ -115,18 +112,25 @@
     <t>X</t>
   </si>
   <si>
+    <t>1º - Leticia                 2º - Guilherme               3º - João</t>
+  </si>
+  <si>
+    <t>1º - Guilherme                    2º - João                      3º - João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º - Leticia
+ 2º - João
+  3º - Guilherme </t>
+  </si>
+  <si>
     <t>1º - Guilherme 
-3º Joana.                     2º - João</t>
-  </si>
-  <si>
-    <t>1º - Leticia                 2º - Guilherme               3º - João</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1º - Leticia
-  3º - Guilherme               3º - João. </t>
-  </si>
-  <si>
-    <t>1º - Guilherme                    2º - João                      3º - João</t>
+2º - João
+3º Joana</t>
+  </si>
+  <si>
+    <t>1º Samuel
+2º - Leticia
+3º - Guilherme</t>
   </si>
 </sst>
 </file>
@@ -703,17 +707,17 @@
   <dimension ref="B5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="5" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
@@ -727,13 +731,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -741,13 +745,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,13 +759,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -769,13 +773,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -783,13 +787,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -797,11 +801,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -809,14 +815,14 @@
         <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -824,13 +830,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -838,13 +844,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -852,13 +858,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -866,10 +872,10 @@
         <v>17</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
